--- a/tables/table_100k_rates_2019_2021.xlsx
+++ b/tables/table_100k_rates_2019_2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,29 +506,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Admissions_Male_Tx</t>
+          <t>Admissions_S_Tx</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-21.58413216615856</v>
+        <v>-30.4262724392506</v>
       </c>
       <c r="D3" t="n">
-        <v>-21.94436806706219</v>
+        <v>-30.97883128155707</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.22223373429994</v>
+        <v>-29.86929000806726</v>
       </c>
       <c r="F3" t="n">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="G3" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H3" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I3" t="n">
-        <v>-37.90322580645162</v>
+        <v>-49.84025559105431</v>
       </c>
     </row>
     <row r="4">
@@ -537,29 +537,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Admissions_Female_Tx</t>
+          <t>Admissions_N_Tx</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-24.90673451222997</v>
+        <v>-21.82697874748172</v>
       </c>
       <c r="D4" t="n">
-        <v>-25.29150363596579</v>
+        <v>-22.68495708841284</v>
       </c>
       <c r="E4" t="n">
-        <v>-24.51998372260892</v>
+        <v>-20.9594792732008</v>
       </c>
       <c r="F4" t="n">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="G4" t="n">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="H4" t="n">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="I4" t="n">
-        <v>-42.3469387755102</v>
+        <v>-38.25757575757576</v>
       </c>
     </row>
     <row r="5">
@@ -568,29 +568,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Admissions_White_Tx</t>
+          <t>Admissions_NE_Tx</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-27.34863516698915</v>
+        <v>-23.86682597994599</v>
       </c>
       <c r="D5" t="n">
-        <v>-27.7630091178662</v>
+        <v>-24.39597269186684</v>
       </c>
       <c r="E5" t="n">
-        <v>-26.93188423765455</v>
+        <v>-23.33397581130854</v>
       </c>
       <c r="F5" t="n">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="G5" t="n">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="I5" t="n">
-        <v>-46.42857142857143</v>
+        <v>-40.09433962264151</v>
       </c>
     </row>
     <row r="6">
@@ -599,29 +599,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Admissions_Black_Tx</t>
+          <t>Admissions_SE_Tx</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-16.15197188842655</v>
+        <v>-18.10363904663712</v>
       </c>
       <c r="D6" t="n">
-        <v>-17.51155376982353</v>
+        <v>-18.55853149679379</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.76998125796591</v>
+        <v>-17.64620578840057</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="I6" t="n">
-        <v>-33.33333333333333</v>
+        <v>-32.7683615819209</v>
       </c>
     </row>
     <row r="7">
@@ -630,29 +630,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Admissions_Brown_Tx</t>
+          <t>Admissions_CO_Tx</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-19.94055834962598</v>
+        <v>-28.82122171920602</v>
       </c>
       <c r="D7" t="n">
-        <v>-20.41375440139263</v>
+        <v>-29.65329175379456</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.46454881543254</v>
+        <v>-27.97930985179087</v>
       </c>
       <c r="F7" t="n">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="G7" t="n">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="H7" t="n">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="I7" t="n">
-        <v>-35.2112676056338</v>
+        <v>-49.80544747081712</v>
       </c>
     </row>
     <row r="8">
@@ -661,29 +661,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Admissions_Yellow_Tx</t>
+          <t>Mortality_Tx</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-40.22981920734237</v>
+        <v>-12.65158457226312</v>
       </c>
       <c r="D8" t="n">
-        <v>-41.46348496349657</v>
+        <v>-13.34655114254396</v>
       </c>
       <c r="E8" t="n">
-        <v>-38.97015376198636</v>
+        <v>-11.95104432268645</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>-62.5</v>
+        <v>-22.85714285714286</v>
       </c>
     </row>
     <row r="9">
@@ -692,29 +692,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Admissions_Indigenous_Tx</t>
+          <t>Mortality_S_Tx</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-18.54428717010012</v>
+        <v>-12.98213044526774</v>
       </c>
       <c r="D9" t="n">
-        <v>-23.49155939466884</v>
+        <v>-14.65941710225604</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.27710903357788</v>
+        <v>-11.27187834049145</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-23.80952380952381</v>
       </c>
     </row>
     <row r="10">
@@ -723,29 +723,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Admissions_NoInfo_Tx</t>
+          <t>Mortality_N_Tx</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-19.45773406624666</v>
+        <v>-12.59848696529023</v>
       </c>
       <c r="D10" t="n">
-        <v>-20.04806265918456</v>
+        <v>-15.02106251043806</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.86304675656928</v>
+        <v>-10.10684875067013</v>
       </c>
       <c r="F10" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I10" t="n">
-        <v>-34.04255319148936</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="11">
@@ -754,29 +754,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Admissions_S_Tx</t>
+          <t>Mortality_NE_Tx</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-30.4262724392506</v>
+        <v>-17.75948211745983</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.97883128155707</v>
+        <v>-19.16091524402478</v>
       </c>
       <c r="E11" t="n">
-        <v>-29.86929000806726</v>
+        <v>-16.33375362913808</v>
       </c>
       <c r="F11" t="n">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="H11" t="n">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>-49.84025559105431</v>
+        <v>-31.25</v>
       </c>
     </row>
     <row r="12">
@@ -785,29 +785,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Admissions_N_Tx</t>
+          <t>Mortality_SE_Tx</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-21.82697874748172</v>
+        <v>-9.459285286328623</v>
       </c>
       <c r="D12" t="n">
-        <v>-22.68495708841284</v>
+        <v>-10.53347695688482</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.9594792732008</v>
+        <v>-8.372196191061555</v>
       </c>
       <c r="F12" t="n">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="H12" t="n">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="I12" t="n">
-        <v>-38.25757575757576</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="13">
@@ -816,29 +816,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Admissions_NE_Tx</t>
+          <t>Mortality_CO_Tx</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-23.86682597994599</v>
+        <v>-17.95419617149479</v>
       </c>
       <c r="D13" t="n">
-        <v>-24.39597269186684</v>
+        <v>-20.21464267605086</v>
       </c>
       <c r="E13" t="n">
-        <v>-23.33397581130854</v>
+        <v>-15.62970760995808</v>
       </c>
       <c r="F13" t="n">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="H13" t="n">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="I13" t="n">
-        <v>-40.09433962264151</v>
+        <v>-30.76923076923077</v>
       </c>
     </row>
     <row r="14">
@@ -847,29 +847,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Admissions_SE_Tx</t>
+          <t>Admissions_uti_Tx</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-18.10363904663712</v>
+        <v>-4.020992563203962</v>
       </c>
       <c r="D14" t="n">
-        <v>-18.55853149679379</v>
+        <v>-5.14107450640765</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.64620578840057</v>
+        <v>-2.887684837049831</v>
       </c>
       <c r="F14" t="n">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>-32.7683615819209</v>
+        <v>-13.33333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -878,29 +878,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Admissions_CO_Tx</t>
+          <t>Admissions_uti_S_Tx</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-28.82122171920602</v>
+        <v>-13.48077649835022</v>
       </c>
       <c r="D15" t="n">
-        <v>-29.65329175379456</v>
+        <v>-15.80317194354098</v>
       </c>
       <c r="E15" t="n">
-        <v>-27.97930985179087</v>
+        <v>-11.09432257579941</v>
       </c>
       <c r="F15" t="n">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I15" t="n">
-        <v>-49.80544747081712</v>
+        <v>-23.80952380952381</v>
       </c>
     </row>
     <row r="16">
@@ -909,29 +909,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Admissions_Public_Tx</t>
+          <t>Admissions_uti_N_Tx</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-17.56412820571433</v>
+        <v>-6.606658413497102</v>
       </c>
       <c r="D16" t="n">
-        <v>-17.9723415204569</v>
+        <v>-11.18155860704638</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.15388340411205</v>
+        <v>-1.796112204855749</v>
       </c>
       <c r="F16" t="n">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>-31.63265306122449</v>
+        <v>-18.18181818181818</v>
       </c>
     </row>
     <row r="17">
@@ -940,29 +940,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Admissions_Private_Tx</t>
+          <t>Admissions_uti_NE_Tx</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-33.49582662987596</v>
+        <v>-1.759629928841444</v>
       </c>
       <c r="D17" t="n">
-        <v>-34.4530009178702</v>
+        <v>-4.553814036724724</v>
       </c>
       <c r="E17" t="n">
-        <v>-32.52467485045683</v>
+        <v>1.116353831379446</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I17" t="n">
-        <v>-53.33333333333334</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="18">
@@ -971,29 +971,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Admissions_ONG_Tx</t>
+          <t>Admissions_uti_SE_Tx</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-28.17467319028023</v>
+        <v>2.211664919045453</v>
       </c>
       <c r="D18" t="n">
-        <v>-28.54732975867062</v>
+        <v>0.4740631227261538</v>
       </c>
       <c r="E18" t="n">
-        <v>-27.80007305676489</v>
+        <v>3.979316858742377</v>
       </c>
       <c r="F18" t="n">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>-46.66666666666666</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="19">
@@ -1002,29 +1002,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mortality_Tx</t>
+          <t>Admissions_uti_CO_Tx</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-12.65158457226312</v>
+        <v>-15.96035940481054</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.34655114254396</v>
+        <v>-18.82082506714258</v>
       </c>
       <c r="E19" t="n">
-        <v>-11.95104432268645</v>
+        <v>-12.99910109692444</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H19" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.85714285714286</v>
+        <v>-29.16666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -1033,29 +1033,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mortality_Male_Tx</t>
+          <t>Admissions_non_uti_Tx</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-11.98649010339635</v>
+        <v>-24.71032860563438</v>
       </c>
       <c r="D20" t="n">
-        <v>-12.88483047264973</v>
+        <v>-24.98201217933563</v>
       </c>
       <c r="E20" t="n">
-        <v>-11.07888595811626</v>
+        <v>-24.43766110839208</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="G20" t="n">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="H20" t="n">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="I20" t="n">
-        <v>-22.72727272727273</v>
+        <v>-42.15686274509804</v>
       </c>
     </row>
     <row r="21">
@@ -1064,29 +1064,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mortality_Female_Tx</t>
+          <t>Admissions_non_uti_S_Tx</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-13.54725553586951</v>
+        <v>-31.80282472590211</v>
       </c>
       <c r="D21" t="n">
-        <v>-14.61242265667644</v>
+        <v>-32.36985491729308</v>
       </c>
       <c r="E21" t="n">
-        <v>-12.46880099046818</v>
+        <v>-31.2310403936239</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>293</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I21" t="n">
-        <v>-24.13793103448276</v>
+        <v>-51.5358361774744</v>
       </c>
     </row>
     <row r="22">
@@ -1095,29 +1095,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mortality_White_Tx</t>
+          <t>Admissions_non_uti_N_Tx</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-15.60124622926309</v>
+        <v>-22.51930713643148</v>
       </c>
       <c r="D22" t="n">
-        <v>-16.66814105286738</v>
+        <v>-23.391202893147</v>
       </c>
       <c r="E22" t="n">
-        <v>-14.52069198921213</v>
+        <v>-21.63748820849688</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="I22" t="n">
-        <v>-26.66666666666667</v>
+        <v>-38.9763779527559</v>
       </c>
     </row>
     <row r="23">
@@ -1126,29 +1126,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mortality_Black_Tx</t>
+          <t>Admissions_non_uti_NE_Tx</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4837515353309563</v>
+        <v>-25.04709030471705</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.936890007456017</v>
+        <v>-25.58444843184131</v>
       </c>
       <c r="E23" t="n">
-        <v>4.02494133342457</v>
+        <v>-24.50585188979404</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-41.87192118226601</v>
       </c>
     </row>
     <row r="24">
@@ -1157,29 +1157,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mortality_Brown_Tx</t>
+          <t>Admissions_non_uti_SE_Tx</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-11.88593082386242</v>
+        <v>-20.2087367398173</v>
       </c>
       <c r="D24" t="n">
-        <v>-13.16050447779934</v>
+        <v>-20.67802279148236</v>
       </c>
       <c r="E24" t="n">
-        <v>-10.59264980653584</v>
+        <v>-19.73667428990753</v>
       </c>
       <c r="F24" t="n">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I24" t="n">
-        <v>-18.18181818181818</v>
+        <v>-36.19631901840491</v>
       </c>
     </row>
     <row r="25">
@@ -1188,710 +1188,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mortality_Yellow_Tx</t>
+          <t>Admissions_non_uti_CO_Tx</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-31.10706706429651</v>
+        <v>-30.31931452438567</v>
       </c>
       <c r="D25" t="n">
-        <v>-34.86408687770163</v>
+        <v>-31.18581746065611</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.13334348177686</v>
+        <v>-29.44190064925266</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mortality_Indigenous_Tx</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>4.549123175270964</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-14.70113497093103</v>
-      </c>
-      <c r="E26" t="n">
-        <v>28.14378190135325</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Mortality_NoInfo_Tx</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>-9.46051196327714</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-10.96052132401947</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-7.935232597411557</v>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-12.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Mortality_S_Tx</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>-12.98213044526774</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-14.65941710225604</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-11.27187834049145</v>
-      </c>
-      <c r="F28" t="n">
-        <v>42</v>
-      </c>
-      <c r="G28" t="n">
-        <v>33</v>
-      </c>
-      <c r="H28" t="n">
-        <v>32</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Mortality_N_Tx</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>-12.59848696529023</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-15.02106251043806</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-10.10684875067013</v>
-      </c>
-      <c r="F29" t="n">
-        <v>36</v>
-      </c>
-      <c r="G29" t="n">
-        <v>32</v>
-      </c>
-      <c r="H29" t="n">
-        <v>27</v>
-      </c>
-      <c r="I29" t="n">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Mortality_NE_Tx</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>-17.75948211745983</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-19.16091524402478</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-16.33375362913808</v>
-      </c>
-      <c r="F30" t="n">
-        <v>32</v>
-      </c>
-      <c r="G30" t="n">
-        <v>24</v>
-      </c>
-      <c r="H30" t="n">
-        <v>22</v>
-      </c>
-      <c r="I30" t="n">
-        <v>-31.25</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Mortality_SE_Tx</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>-9.459285286328623</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-10.53347695688482</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-8.372196191061555</v>
-      </c>
-      <c r="F31" t="n">
-        <v>35</v>
-      </c>
-      <c r="G31" t="n">
-        <v>33</v>
-      </c>
-      <c r="H31" t="n">
-        <v>28</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Mortality_CO_Tx</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>-17.95419617149479</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-20.21464267605086</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-15.62970760995808</v>
-      </c>
-      <c r="F32" t="n">
-        <v>39</v>
-      </c>
-      <c r="G32" t="n">
-        <v>34</v>
-      </c>
-      <c r="H32" t="n">
-        <v>27</v>
-      </c>
-      <c r="I32" t="n">
-        <v>-30.76923076923077</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Mortality_Public_Tx</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>-9.846258176520163</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-10.83990114643768</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-8.841541572046808</v>
-      </c>
-      <c r="F33" t="n">
-        <v>18</v>
-      </c>
-      <c r="G33" t="n">
-        <v>17</v>
-      </c>
-      <c r="H33" t="n">
-        <v>15</v>
-      </c>
-      <c r="I33" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mortality_Private_Tx</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>-15.64680384015438</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-19.5619335017696</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-11.54111464703181</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Mortality_ONG_Tx</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>-16.06041164866961</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-17.06289608396189</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-15.04580989801968</v>
-      </c>
-      <c r="F35" t="n">
-        <v>17</v>
-      </c>
-      <c r="G35" t="n">
-        <v>13</v>
-      </c>
-      <c r="H35" t="n">
-        <v>12</v>
-      </c>
-      <c r="I35" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Admissions_uti_Tx</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>-4.020992563203962</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-5.14107450640765</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-2.887684837049831</v>
-      </c>
-      <c r="F36" t="n">
-        <v>15</v>
-      </c>
-      <c r="G36" t="n">
-        <v>16</v>
-      </c>
-      <c r="H36" t="n">
-        <v>13</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-13.33333333333333</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Admissions_uti_S_Tx</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>-13.48077649835022</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-15.80317194354098</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-11.09432257579941</v>
-      </c>
-      <c r="F37" t="n">
-        <v>21</v>
-      </c>
-      <c r="G37" t="n">
-        <v>19</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Admissions_uti_N_Tx</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>-6.606658413497102</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-11.18155860704638</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-1.796112204855749</v>
-      </c>
-      <c r="F38" t="n">
-        <v>11</v>
-      </c>
-      <c r="G38" t="n">
-        <v>10</v>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Admissions_uti_NE_Tx</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>-1.759629928841444</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-4.553814036724724</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.116353831379446</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
-      </c>
-      <c r="G39" t="n">
-        <v>9</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-      <c r="I39" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Admissions_uti_SE_Tx</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>2.211664919045453</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.4740631227261538</v>
-      </c>
-      <c r="E40" t="n">
-        <v>3.979316858742377</v>
-      </c>
-      <c r="F40" t="n">
-        <v>14</v>
-      </c>
-      <c r="G40" t="n">
-        <v>17</v>
-      </c>
-      <c r="H40" t="n">
-        <v>15</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7.142857142857142</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Admissions_uti_CO_Tx</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>-15.96035940481054</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-18.82082506714258</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-12.99910109692444</v>
-      </c>
-      <c r="F41" t="n">
-        <v>24</v>
-      </c>
-      <c r="G41" t="n">
-        <v>24</v>
-      </c>
-      <c r="H41" t="n">
-        <v>17</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-29.16666666666667</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_Tx</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>-24.71032860563438</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-24.98201217933563</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-24.43766110839208</v>
-      </c>
-      <c r="F42" t="n">
-        <v>204</v>
-      </c>
-      <c r="G42" t="n">
-        <v>142</v>
-      </c>
-      <c r="H42" t="n">
-        <v>118</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-42.15686274509804</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_S_Tx</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>-31.80282472590211</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-32.36985491729308</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-31.2310403936239</v>
-      </c>
-      <c r="F43" t="n">
-        <v>293</v>
-      </c>
-      <c r="G43" t="n">
-        <v>174</v>
-      </c>
-      <c r="H43" t="n">
-        <v>142</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-51.5358361774744</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_N_Tx</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>-22.51930713643148</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-23.391202893147</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-21.63748820849688</v>
-      </c>
-      <c r="F44" t="n">
-        <v>254</v>
-      </c>
-      <c r="G44" t="n">
-        <v>182</v>
-      </c>
-      <c r="H44" t="n">
-        <v>155</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-38.9763779527559</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_NE_Tx</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>-25.04709030471705</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-25.58444843184131</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-24.50585188979404</v>
-      </c>
-      <c r="F45" t="n">
-        <v>203</v>
-      </c>
-      <c r="G45" t="n">
-        <v>125</v>
-      </c>
-      <c r="H45" t="n">
-        <v>118</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-41.87192118226601</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_SE_Tx</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>-20.2087367398173</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-20.67802279148236</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-19.73667428990753</v>
-      </c>
-      <c r="F46" t="n">
-        <v>163</v>
-      </c>
-      <c r="G46" t="n">
-        <v>129</v>
-      </c>
-      <c r="H46" t="n">
-        <v>104</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-36.19631901840491</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_CO_Tx</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>-30.31931452438567</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-31.18581746065611</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-29.44190064925266</v>
-      </c>
-      <c r="F47" t="n">
-        <v>234</v>
-      </c>
-      <c r="G47" t="n">
-        <v>168</v>
-      </c>
-      <c r="H47" t="n">
-        <v>113</v>
-      </c>
-      <c r="I47" t="n">
         <v>-51.70940170940172</v>
       </c>
     </row>

--- a/tables/table_100k_rates_2019_2021.xlsx
+++ b/tables/table_100k_rates_2019_2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,6 +1213,254 @@
         <v>-51.70940170940172</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Admissions_eld_Tx</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-26.2181808947216</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-26.92994131880578</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-25.49948735862907</v>
+      </c>
+      <c r="F26" t="n">
+        <v>801</v>
+      </c>
+      <c r="G26" t="n">
+        <v>533</v>
+      </c>
+      <c r="H26" t="n">
+        <v>445</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-44.44444444444444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Admissions_non_eld_Tx</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-17.21045888725881</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-17.73862587488443</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-16.6789007531834</v>
+      </c>
+      <c r="F27" t="n">
+        <v>88</v>
+      </c>
+      <c r="G27" t="n">
+        <v>73</v>
+      </c>
+      <c r="H27" t="n">
+        <v>61</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-30.68181818181818</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Admissions_uti_eld_Tx</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-7.700048924177882</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-10.66947333950832</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-4.631918258162604</v>
+      </c>
+      <c r="F28" t="n">
+        <v>53</v>
+      </c>
+      <c r="G28" t="n">
+        <v>54</v>
+      </c>
+      <c r="H28" t="n">
+        <v>45</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-15.09433962264151</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Admissions_uti_non_eld_Tx</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2.985009492824675</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.731746798459687</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.288675291783629</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Admissions_non_uti_eld_Tx</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-27.7717156328871</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-28.50203645568175</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-27.03393489826046</v>
+      </c>
+      <c r="F30" t="n">
+        <v>749</v>
+      </c>
+      <c r="G30" t="n">
+        <v>480</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-46.5954606141522</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Admissions_non_uti_non_eld_Tx</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-18.8390345105688</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-19.38049573696554</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-18.29393669198049</v>
+      </c>
+      <c r="F31" t="n">
+        <v>83</v>
+      </c>
+      <c r="G31" t="n">
+        <v>66</v>
+      </c>
+      <c r="H31" t="n">
+        <v>55</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-33.73493975903614</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mortality_eld_Tx</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>-14.51407613111556</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-16.19542779828318</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-12.79899189596965</v>
+      </c>
+      <c r="F32" t="n">
+        <v>160</v>
+      </c>
+      <c r="G32" t="n">
+        <v>135</v>
+      </c>
+      <c r="H32" t="n">
+        <v>117</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-26.875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mortality_non_eld_Tx</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>-3.967703623114516</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-5.928045253893643</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1.966510929765908</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tables/table_100k_rates_2019_2021.xlsx
+++ b/tables/table_100k_rates_2019_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t xml:space="preserve">Analise</t>
   </si>
@@ -61,6 +61,12 @@
     <t xml:space="preserve">Admissions_70_up_Tx</t>
   </si>
   <si>
+    <t xml:space="preserve">Admissions_non_elderly_Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissions_elderly_Tx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Admissions_uti_20_49_Tx</t>
   </si>
   <si>
@@ -73,6 +79,12 @@
     <t xml:space="preserve">Admissions_uti_70_up_Tx</t>
   </si>
   <si>
+    <t xml:space="preserve">Admissions_uti_non_elderly_Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissions_uti_elderly_Tx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Admissions_non_uti_20_49_Tx</t>
   </si>
   <si>
@@ -85,6 +97,12 @@
     <t xml:space="preserve">Admissions_non_uti_70_up_Tx</t>
   </si>
   <si>
+    <t xml:space="preserve">Admissions_non_uti_non_elderly_Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissions_non_uti_elderly_Tx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mortes_20_49_Tx</t>
   </si>
   <si>
@@ -95,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mortes_70_up_Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortes_non_elderly_Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortes_elderly_Tx</t>
   </si>
 </sst>
 </file>
@@ -220,18 +244,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="7.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.87"/>
@@ -512,26 +536,26 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0</v>
+        <v>-30.6818181818182</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="n">
-        <v>2.37284316760646</v>
+        <v>-17.2104588872588</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>-0.865210708469233</v>
+        <v>-17.7386258748844</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>5.71666206299881</v>
+        <v>-16.6789007531834</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,26 +566,26 @@
         <v>14</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>13</v>
+        <v>801</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>15</v>
+        <v>533</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>14</v>
+        <v>445</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>7.69230769230769</v>
+        <v>-44.4444444444444</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="n">
-        <v>3.83978812017014</v>
+        <v>-26.2181808947216</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>-3.93517675724183</v>
+        <v>-26.9299413188058</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>12.2440164137259</v>
+        <v>-25.4994873586291</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,26 +596,26 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>-6.89655172413793</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="n">
-        <v>-4.05152971523784</v>
+        <v>2.37284316760646</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>-11.2050455007519</v>
+        <v>-0.865210708469233</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>3.67828895124707</v>
+        <v>5.71666206299881</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,26 +626,26 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-18.0722891566265</v>
+        <v>7.69230769230769</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="n">
-        <v>-9.35465423919979</v>
+        <v>3.83978812017014</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>-14.5832149269055</v>
+        <v>-3.93517675724183</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>-3.80604115381106</v>
+        <v>12.2440164137259</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,26 +656,26 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-32.3076923076923</v>
+        <v>-6.89655172413793</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="n">
-        <v>-18.0716326024287</v>
+        <v>-4.05152971523784</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>-18.8268236014095</v>
+        <v>-11.2050455007519</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>-17.3094157179244</v>
+        <v>3.67828895124707</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,26 +686,26 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>-36.25</v>
+        <v>-18.0722891566265</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="n">
-        <v>-20.2432021009119</v>
+        <v>-9.35465423919979</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>-22.2542845017394</v>
+        <v>-14.5832149269055</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>-18.1800981526975</v>
+        <v>-3.80604115381106</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,26 +716,26 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-42.9824561403509</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="n">
-        <v>-25.0539151286733</v>
+        <v>2.98500949282468</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>-27.0020763931938</v>
+        <v>0.731746798459687</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>-23.0537615316993</v>
+        <v>5.28867529178363</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,26 +746,26 @@
         <v>20</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1268</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>789</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>662</v>
+        <v>45</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>-47.7917981072555</v>
+        <v>-15.0943396226415</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="n">
-        <v>-28.723117769107</v>
+        <v>-7.70004892417788</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>-29.9801621459116</v>
+        <v>-10.6694733395083</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>-27.4435060654751</v>
+        <v>-4.6319182581626</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,26 +776,26 @@
         <v>21</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0</v>
+        <v>-32.3076923076923</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="n">
-        <v>-3.18052579857375</v>
+        <v>-18.0716326024287</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>-6.29604868119167</v>
+        <v>-18.8268236014095</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.0385837812485468</v>
+        <v>-17.3094157179244</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,26 +806,26 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>-5</v>
+        <v>-36.25</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="n">
-        <v>-4.70450139490225</v>
+        <v>-20.2432021009119</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>-10.7402492297399</v>
+        <v>-22.2542845017394</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>1.73938394436906</v>
+        <v>-18.1800981526975</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,26 +836,26 @@
         <v>23</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>56</v>
+        <v>342</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>-17.8571428571429</v>
+        <v>-42.9824561403509</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="n">
-        <v>-9.13898487654918</v>
+        <v>-25.0539151286733</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>-14.2669692326109</v>
+        <v>-27.0020763931938</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>-3.70427832344584</v>
+        <v>-23.0537615316993</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,26 +866,817 @@
         <v>24</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>293</v>
+        <v>1268</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>238</v>
+        <v>789</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>208</v>
+        <v>662</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-29.0102389078498</v>
+        <v>-47.7917981072555</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="n">
+        <v>-28.723117769107</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>-29.9801621459116</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>-27.4435060654751</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>-33.7349397590361</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="n">
+        <v>-18.8390345105688</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>-19.3804957369655</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>-18.2939366919805</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>749</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>-46.5954606141522</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="n">
+        <v>-27.7717156328871</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>-28.5020364556817</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>-27.0339348982605</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="n">
+        <v>-3.18052579857375</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>-6.29604868119167</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>0.0385837812485468</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="n">
+        <v>-4.70450139490225</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>-10.7402492297399</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>1.73938394436906</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>-17.8571428571429</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="n">
+        <v>-9.13898487654918</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>-14.2669692326109</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>-3.70427832344584</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>-29.0102389078498</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="n">
         <v>-15.8921995376523</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I27" s="3" t="n">
         <v>-18.6620563652278</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J27" s="3" t="n">
         <v>-13.0280188742085</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="n">
+        <v>-3.96770362311452</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>-5.92804525389364</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>-1.96651092976591</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>-26.875</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="n">
+        <v>-14.5140761311156</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>-16.1954277982832</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>-12.7989918959697</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>-13.3333333333333</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="n">
+        <v>-4.02099256320396</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>-5.14107450640765</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>-2.88768483704983</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>-42.156862745098</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="n">
+        <v>-24.7103286056344</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>-24.9820121793356</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>-24.4376611083921</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>-30.4347826086957</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="n">
+        <v>-16.6701761477667</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>-17.4077689920842</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>-15.9259962044284</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="n">
+        <v>2.37284316760646</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>-0.865210708469233</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>5.71666206299881</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>-32.3076923076923</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="n">
+        <v>-18.0716326024287</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>-18.8268236014095</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>-17.3094157179244</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>-32.5581395348837</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="n">
+        <v>-18.1704934320639</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>-20.1293801181385</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>-16.1635635850053</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>7.69230769230769</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="n">
+        <v>3.83978812017014</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>-3.93517675724183</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>12.2440164137259</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>-36.25</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="n">
+        <v>-20.2432021009119</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>-22.2542845017394</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>-18.1800981526975</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>370</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>268</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>-40.2702702702703</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="n">
+        <v>-23.1487419982456</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>-25.0391184710378</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>-21.2106936846745</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>-6.89655172413793</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="n">
+        <v>-4.05152971523784</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>-11.2050455007519</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>3.67828895124707</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>-42.9824561403509</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="n">
+        <v>-25.0539151286733</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>-27.0020763931938</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>-23.0537615316993</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>871</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>730</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>-45.9259259259259</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="n">
+        <v>-27.317631152438</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>-28.544806821111</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>-26.0693798970261</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>-18.0722891566265</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="n">
+        <v>-9.35465423919979</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>-14.5832149269055</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>-3.80604115381106</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1268</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>789</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>662</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>-47.7917981072555</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="n">
+        <v>-28.723117769107</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>-29.9801621459116</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>-27.4435060654751</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>-30.6818181818182</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="n">
+        <v>-17.2104588872588</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>-17.7386258748844</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>-16.6789007531834</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="n">
+        <v>2.98500949282468</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>0.731746798459687</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>5.28867529178363</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>-33.7349397590361</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="n">
+        <v>-18.8390345105688</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>-19.3804957369655</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>-18.2939366919805</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>801</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>533</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>445</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>-44.4444444444444</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="n">
+        <v>-26.2181808947216</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>-26.9299413188058</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>-25.4994873586291</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>-15.0943396226415</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="n">
+        <v>-7.70004892417788</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>-10.6694733395083</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>-4.6319182581626</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>749</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>-46.5954606141522</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="n">
+        <v>-27.7717156328871</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>-28.5020364556817</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>-27.0339348982605</v>
       </c>
     </row>
   </sheetData>
